--- a/metadata_modified.xlsx
+++ b/metadata_modified.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9098d578d04dc61/2018/_CSP572_Practicum/EDSA UCA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\2018\_CSP572_Practicum\EDSA UCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{B2F08F80-D4A7-4A77-B97B-87BD3BE65329}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{A4A70514-2476-4814-9529-0B2A85F751AC}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{B2F08F80-D4A7-4A77-B97B-87BD3BE65329}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{0399E066-951F-48CB-AFCF-7823C3FEAF55}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,9 +652,6 @@
     <t>region</t>
   </si>
   <si>
-    <t>home_condition</t>
-  </si>
-  <si>
     <t>minors_in_home</t>
   </si>
   <si>
@@ -845,6 +842,9 @@
   </si>
   <si>
     <t>housing_adequacy1</t>
+  </si>
+  <si>
+    <t>socio_ec_level</t>
   </si>
 </sst>
 </file>
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1275,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>85</v>
@@ -1597,7 +1597,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>96</v>
@@ -1620,7 +1620,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>97</v>
@@ -1643,7 +1643,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>98</v>
@@ -1666,7 +1666,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>99</v>
@@ -1689,7 +1689,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>100</v>
@@ -1712,7 +1712,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>101</v>
@@ -1735,7 +1735,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>86</v>
@@ -1758,7 +1758,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>86</v>
@@ -1781,7 +1781,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>102</v>
@@ -1804,7 +1804,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>103</v>
@@ -1827,7 +1827,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>104</v>
@@ -1850,7 +1850,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>105</v>
@@ -1873,7 +1873,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>106</v>
@@ -1896,7 +1896,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>107</v>
@@ -1919,7 +1919,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>108</v>
@@ -1942,7 +1942,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>109</v>
@@ -1965,7 +1965,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>110</v>
@@ -1988,7 +1988,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>111</v>
@@ -2011,7 +2011,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>112</v>
@@ -2034,7 +2034,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>113</v>
@@ -2057,7 +2057,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>114</v>
@@ -2080,7 +2080,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>115</v>
@@ -2103,7 +2103,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>116</v>
@@ -2126,7 +2126,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>117</v>
@@ -2149,7 +2149,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>118</v>
@@ -2172,7 +2172,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>119</v>
@@ -2195,7 +2195,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>120</v>
@@ -2218,7 +2218,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>121</v>
@@ -2241,7 +2241,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>122</v>
@@ -2264,7 +2264,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>123</v>
@@ -2287,7 +2287,7 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>124</v>
@@ -2310,7 +2310,7 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>125</v>
@@ -2333,7 +2333,7 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>126</v>
@@ -2356,7 +2356,7 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>86</v>
@@ -2379,7 +2379,7 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>127</v>
@@ -2402,7 +2402,7 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>128</v>
@@ -2425,7 +2425,7 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>129</v>
@@ -2448,7 +2448,7 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>130</v>
@@ -2471,7 +2471,7 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>131</v>
@@ -2494,7 +2494,7 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>132</v>
@@ -2517,7 +2517,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>133</v>
@@ -2540,7 +2540,7 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>134</v>
@@ -2563,7 +2563,7 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>135</v>
@@ -2586,7 +2586,7 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>136</v>
@@ -2609,7 +2609,7 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>137</v>
@@ -2632,7 +2632,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>138</v>
@@ -2655,7 +2655,7 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>139</v>
@@ -2678,7 +2678,7 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>140</v>
@@ -2701,7 +2701,7 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>141</v>
@@ -2724,7 +2724,7 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>142</v>
@@ -2747,7 +2747,7 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>143</v>
@@ -2770,7 +2770,7 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>144</v>
@@ -2793,7 +2793,7 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>145</v>
@@ -2816,7 +2816,7 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>146</v>
@@ -2839,7 +2839,7 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>147</v>
@@ -2862,7 +2862,7 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>148</v>
@@ -2885,7 +2885,7 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>149</v>
@@ -2908,7 +2908,7 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>150</v>
@@ -2931,7 +2931,7 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>151</v>
@@ -2954,7 +2954,7 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>152</v>
@@ -2977,7 +2977,7 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>153</v>
@@ -3000,7 +3000,7 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>86</v>
@@ -3023,7 +3023,7 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>154</v>
@@ -3046,7 +3046,7 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>86</v>

--- a/metadata_modified.xlsx
+++ b/metadata_modified.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\2018\_CSP572_Practicum\EDSA UCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{B2F08F80-D4A7-4A77-B97B-87BD3BE65329}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{0399E066-951F-48CB-AFCF-7823C3FEAF55}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{B2F08F80-D4A7-4A77-B97B-87BD3BE65329}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{04A1C7C2-4FD6-4114-A8BE-85129BDDE13D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -667,15 +667,6 @@
     <t>questionnaire_id</t>
   </si>
   <si>
-    <t>head_household_empl</t>
-  </si>
-  <si>
-    <t>head_household_sex</t>
-  </si>
-  <si>
-    <t>head_household_educa</t>
-  </si>
-  <si>
     <t>housing_tenure</t>
   </si>
   <si>
@@ -845,6 +836,15 @@
   </si>
   <si>
     <t>socio_ec_level</t>
+  </si>
+  <si>
+    <t>head_house_empl</t>
+  </si>
+  <si>
+    <t>head_house_sex</t>
+  </si>
+  <si>
+    <t>head_house_educa</t>
   </si>
 </sst>
 </file>
@@ -1210,10 +1210,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1244,7 +1245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1290,7 +1291,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1428,7 +1429,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1451,7 +1452,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1543,7 +1544,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>96</v>
@@ -1612,7 +1613,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1712,7 +1713,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>101</v>
@@ -1735,7 +1736,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>86</v>
@@ -1758,7 +1759,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>86</v>
@@ -1773,7 +1774,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>102</v>
@@ -1796,7 +1797,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1804,7 +1805,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>103</v>
@@ -1819,7 +1820,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1827,7 +1828,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>104</v>
@@ -1842,7 +1843,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1850,7 +1851,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>105</v>
@@ -1865,7 +1866,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1873,7 +1874,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>106</v>
@@ -1888,7 +1889,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>107</v>
@@ -1911,7 +1912,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>108</v>
@@ -1934,7 +1935,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1942,7 +1943,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>109</v>
@@ -1957,7 +1958,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>110</v>
@@ -1980,7 +1981,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>111</v>
@@ -2003,7 +2004,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>112</v>
@@ -2026,7 +2027,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>113</v>
@@ -2049,7 +2050,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>114</v>
@@ -2072,7 +2073,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>115</v>
@@ -2095,7 +2096,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>116</v>
@@ -2118,7 +2119,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2126,7 +2127,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>117</v>
@@ -2141,7 +2142,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2149,7 +2150,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>118</v>
@@ -2164,7 +2165,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>119</v>
@@ -2187,7 +2188,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>120</v>
@@ -2210,7 +2211,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>121</v>
@@ -2233,7 +2234,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2241,7 +2242,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>122</v>
@@ -2256,7 +2257,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>123</v>
@@ -2279,7 +2280,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>124</v>
@@ -2302,7 +2303,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>125</v>
@@ -2325,7 +2326,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>126</v>
@@ -2348,7 +2349,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -2356,7 +2357,7 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>86</v>
@@ -2371,7 +2372,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -2379,7 +2380,7 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>127</v>
@@ -2394,7 +2395,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>128</v>
@@ -2417,7 +2418,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>129</v>
@@ -2440,7 +2441,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>130</v>
@@ -2463,7 +2464,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -2471,7 +2472,7 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>131</v>
@@ -2486,7 +2487,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>132</v>
@@ -2509,7 +2510,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2517,7 +2518,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>133</v>
@@ -2532,7 +2533,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>134</v>
@@ -2555,7 +2556,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -2563,7 +2564,7 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>135</v>
@@ -2578,7 +2579,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>136</v>
@@ -2601,7 +2602,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>137</v>
@@ -2624,7 +2625,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>138</v>
@@ -2647,7 +2648,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>139</v>
@@ -2670,7 +2671,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>140</v>
@@ -2693,7 +2694,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>141</v>
@@ -2716,7 +2717,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>142</v>
@@ -2739,7 +2740,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>143</v>
@@ -2762,7 +2763,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>144</v>
@@ -2785,7 +2786,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>145</v>
@@ -2808,7 +2809,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -2816,7 +2817,7 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>146</v>
@@ -2831,7 +2832,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>147</v>
@@ -2854,7 +2855,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>148</v>
@@ -2877,7 +2878,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>149</v>
@@ -2900,7 +2901,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -2908,7 +2909,7 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>150</v>
@@ -2923,7 +2924,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -2931,7 +2932,7 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>151</v>
@@ -2946,7 +2947,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -2954,7 +2955,7 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>152</v>
@@ -2969,7 +2970,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>153</v>
@@ -2992,7 +2993,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>86</v>
@@ -3015,7 +3016,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>154</v>
@@ -3038,7 +3039,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>86</v>
@@ -3062,7 +3063,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G80" xr:uid="{6731F7B9-C5FA-420D-BA13-12B49C4D9AC0}"/>
+  <autoFilter ref="B1:G80" xr:uid="{6731F7B9-C5FA-420D-BA13-12B49C4D9AC0}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="head_household_educa"/>
+        <filter val="head_household_empl"/>
+        <filter val="head_household_sex"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="C2:C80">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/metadata_modified.xlsx
+++ b/metadata_modified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\2018\_CSP572_Practicum\EDSA UCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{B2F08F80-D4A7-4A77-B97B-87BD3BE65329}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{04A1C7C2-4FD6-4114-A8BE-85129BDDE13D}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="8_{B2F08F80-D4A7-4A77-B97B-87BD3BE65329}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{533E0B08-764D-4188-8D9B-FFCF979C54D7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -860,12 +860,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -880,16 +910,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -902,6 +990,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1210,11 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1245,14 +1337,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>195</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1268,14 +1360,14 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>213</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1291,14 +1383,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>196</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1314,14 +1406,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>197</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1337,14 +1429,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1360,14 +1452,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>199</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1383,14 +1475,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1406,14 +1498,14 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1429,14 +1521,14 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>202</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1452,14 +1544,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>203</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1475,14 +1567,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>204</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1498,14 +1590,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1521,14 +1613,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1544,14 +1636,14 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1567,14 +1659,14 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1590,14 +1682,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>270</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1613,14 +1705,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>209</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1636,14 +1728,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>210</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1659,14 +1751,14 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>211</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1682,14 +1774,14 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>212</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1709,10 +1801,10 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>271</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1732,10 +1824,10 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>272</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1755,10 +1847,10 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>273</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1774,14 +1866,14 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1797,14 +1889,14 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1820,14 +1912,14 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>269</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1843,14 +1935,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>216</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1866,14 +1958,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>217</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1889,14 +1981,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>218</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1912,14 +2004,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1935,14 +2027,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>220</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1958,14 +2050,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>221</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1981,14 +2073,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2004,14 +2096,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>223</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -2027,14 +2119,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -2050,14 +2142,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>225</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2073,14 +2165,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>226</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -2096,14 +2188,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>227</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2119,14 +2211,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>228</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -2142,14 +2234,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>229</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -2165,14 +2257,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>41</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>230</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -2188,14 +2280,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>42</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>231</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -2211,14 +2303,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>43</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>232</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -2234,14 +2326,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="7">
         <v>44</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="7" t="s">
         <v>233</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -2257,14 +2349,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="7">
         <v>45</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="7" t="s">
         <v>234</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -2280,14 +2372,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="7">
         <v>46</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="7" t="s">
         <v>235</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -2303,14 +2395,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="7">
         <v>47</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="7" t="s">
         <v>236</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -2326,14 +2418,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="7">
         <v>48</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="7" t="s">
         <v>237</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -2349,14 +2441,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>49</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -2372,14 +2464,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -2395,14 +2487,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>51</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>240</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -2418,14 +2510,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>52</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>241</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -2441,14 +2533,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>53</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>242</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -2464,14 +2556,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>54</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>243</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -2487,14 +2579,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>55</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>244</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -2510,14 +2602,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>56</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>245</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -2533,14 +2625,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>57</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>246</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -2556,14 +2648,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>58</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>247</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -2579,14 +2671,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>59</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>248</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -2602,14 +2694,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>60</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>249</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -2625,14 +2717,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>61</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -2648,14 +2740,14 @@
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>62</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>251</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -2671,14 +2763,14 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <v>63</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -2694,14 +2786,14 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>68</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="4">
         <v>64</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>253</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -2717,14 +2809,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>69</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="4">
         <v>65</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>254</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -2740,14 +2832,14 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>66</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>255</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -2763,14 +2855,14 @@
         <v>185</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="3">
         <v>67</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
         <v>256</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -2786,14 +2878,14 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>72</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="3">
         <v>68</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="3" t="s">
         <v>257</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -2809,14 +2901,14 @@
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="4">
         <v>69</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>258</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -2832,14 +2924,14 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <v>70</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -2855,14 +2947,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
         <v>71</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>260</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -2878,14 +2970,14 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>76</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="4">
         <v>72</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -2901,14 +2993,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>77</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="4">
         <v>73</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>262</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -2924,14 +3016,14 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>78</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <v>74</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>263</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -2947,14 +3039,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>79</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="4">
         <v>75</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>264</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -2970,14 +3062,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>80</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="4">
         <v>76</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>265</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -2993,14 +3085,14 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>81</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="4">
         <v>77</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>266</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -3016,14 +3108,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>82</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>78</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>267</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -3039,14 +3131,14 @@
         <v>193</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>83</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="4">
         <v>79</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>268</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -3063,18 +3155,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G80" xr:uid="{6731F7B9-C5FA-420D-BA13-12B49C4D9AC0}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="head_household_educa"/>
-        <filter val="head_household_empl"/>
-        <filter val="head_household_sex"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="C2:C80">
+  <autoFilter ref="B1:G80" xr:uid="{6731F7B9-C5FA-420D-BA13-12B49C4D9AC0}"/>
+  <conditionalFormatting sqref="C2:C21 C26:C49 C53:C78 C80">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C25">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51:C52">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>